--- a/B01_02 常用Python包学习/B01_02 10 Python_Excel/002 Docs/test1653298329.xlsx
+++ b/B01_02 常用Python包学习/B01_02 10 Python_Excel/002 Docs/test1653298329.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="9号" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="9号" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -34,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -42,17 +42,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="00000000"/>
+      </left>
+      <right style="double">
+        <color rgb="00000000"/>
+      </right>
+      <top style="double">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -413,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,346 +451,506 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>标题</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>标题</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>标题</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>标题</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>标题</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>标题</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>标题</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>标题</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>标题</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>标题</t>
         </is>
       </c>
+      <c r="K1" s="1" t="n"/>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="1" t="n"/>
+      <c r="O1" s="1" t="n"/>
+      <c r="P1" s="1" t="n"/>
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="n"/>
+      <c r="S1" s="1" t="n"/>
+      <c r="T1" s="1" t="n"/>
+      <c r="U1" s="1" t="n"/>
+      <c r="V1" s="1" t="n"/>
+      <c r="W1" s="1" t="n"/>
+      <c r="X1" s="1" t="n"/>
+      <c r="Y1" s="1" t="n"/>
+      <c r="Z1" s="1" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
         <v>533</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="1" t="n">
         <v>953</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="1" t="n">
         <v>339</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="1" t="n">
         <v>251</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="1" t="n">
         <v>590</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="1" t="n">
         <v>660</v>
       </c>
+      <c r="K2" s="1" t="n"/>
+      <c r="L2" s="1" t="n"/>
+      <c r="M2" s="1" t="n"/>
+      <c r="N2" s="1" t="n"/>
+      <c r="O2" s="1" t="n"/>
+      <c r="P2" s="1" t="n"/>
+      <c r="Q2" s="1" t="n"/>
+      <c r="R2" s="1" t="n"/>
+      <c r="S2" s="1" t="n"/>
+      <c r="T2" s="1" t="n"/>
+      <c r="U2" s="1" t="n"/>
+      <c r="V2" s="1" t="n"/>
+      <c r="W2" s="1" t="n"/>
+      <c r="X2" s="1" t="n"/>
+      <c r="Y2" s="1" t="n"/>
+      <c r="Z2" s="1" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
         <v>296</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="1" t="n">
         <v>666</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="1" t="n">
         <v>605</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="1" t="n">
         <v>529</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="1" t="n">
         <v>909</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="1" t="n">
         <v>392</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="1" t="n">
         <v>487</v>
       </c>
+      <c r="K3" s="1" t="n"/>
+      <c r="L3" s="1" t="n"/>
+      <c r="M3" s="1" t="n"/>
+      <c r="N3" s="1" t="n"/>
+      <c r="O3" s="1" t="n"/>
+      <c r="P3" s="1" t="n"/>
+      <c r="Q3" s="1" t="n"/>
+      <c r="R3" s="1" t="n"/>
+      <c r="S3" s="1" t="n"/>
+      <c r="T3" s="1" t="n"/>
+      <c r="U3" s="1" t="n"/>
+      <c r="V3" s="1" t="n"/>
+      <c r="W3" s="1" t="n"/>
+      <c r="X3" s="1" t="n"/>
+      <c r="Y3" s="1" t="n"/>
+      <c r="Z3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
         <v>968</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="n">
         <v>297</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="1" t="n">
         <v>502</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="1" t="n">
         <v>346</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="1" t="n">
         <v>378</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="1" t="n">
         <v>358</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="1" t="n">
         <v>983</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="K4" s="1" t="n"/>
+      <c r="L4" s="1" t="n"/>
+      <c r="M4" s="1" t="n"/>
+      <c r="N4" s="1" t="n"/>
+      <c r="O4" s="1" t="n"/>
+      <c r="P4" s="1" t="n"/>
+      <c r="Q4" s="1" t="n"/>
+      <c r="R4" s="1" t="n"/>
+      <c r="S4" s="1" t="n"/>
+      <c r="T4" s="1" t="n"/>
+      <c r="U4" s="1" t="n"/>
+      <c r="V4" s="1" t="n"/>
+      <c r="W4" s="1" t="n"/>
+      <c r="X4" s="1" t="n"/>
+      <c r="Y4" s="1" t="n"/>
+      <c r="Z4" s="1" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="1" t="n">
         <v>235</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="1" t="n">
         <v>637</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="1" t="n">
         <v>360</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="1" t="n">
         <v>301</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="1" t="n">
         <v>917</v>
       </c>
+      <c r="K5" s="1" t="n"/>
+      <c r="L5" s="1" t="n"/>
+      <c r="M5" s="1" t="n"/>
+      <c r="N5" s="1" t="n"/>
+      <c r="O5" s="1" t="n"/>
+      <c r="P5" s="1" t="n"/>
+      <c r="Q5" s="1" t="n"/>
+      <c r="R5" s="1" t="n"/>
+      <c r="S5" s="1" t="n"/>
+      <c r="T5" s="1" t="n"/>
+      <c r="U5" s="1" t="n"/>
+      <c r="V5" s="1" t="n"/>
+      <c r="W5" s="1" t="n"/>
+      <c r="X5" s="1" t="n"/>
+      <c r="Y5" s="1" t="n"/>
+      <c r="Z5" s="1" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="n">
         <v>329</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="1" t="n">
         <v>641</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="1" t="n">
         <v>292</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="1" t="n">
         <v>245</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="1" t="n">
         <v>553</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="1" t="n">
         <v>308</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="1" t="n">
         <v>999</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="1" t="n">
         <v>357</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="1" t="n">
         <v>888</v>
       </c>
+      <c r="K6" s="1" t="n"/>
+      <c r="L6" s="1" t="n"/>
+      <c r="M6" s="1" t="n"/>
+      <c r="N6" s="1" t="n"/>
+      <c r="O6" s="1" t="n"/>
+      <c r="P6" s="1" t="n"/>
+      <c r="Q6" s="1" t="n"/>
+      <c r="R6" s="1" t="n"/>
+      <c r="S6" s="1" t="n"/>
+      <c r="T6" s="1" t="n"/>
+      <c r="U6" s="1" t="n"/>
+      <c r="V6" s="1" t="n"/>
+      <c r="W6" s="1" t="n"/>
+      <c r="X6" s="1" t="n"/>
+      <c r="Y6" s="1" t="n"/>
+      <c r="Z6" s="1" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="n">
         <v>605</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="1" t="n">
         <v>887</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="1" t="n">
         <v>471</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="1" t="n">
         <v>901</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="1" t="n">
         <v>747</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="1" t="n">
         <v>362</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="1" t="n">
         <v>769</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="1" t="n">
         <v>774</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="1" t="n">
         <v>649</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="1" t="n">
         <v>299</v>
       </c>
+      <c r="K7" s="1" t="n"/>
+      <c r="L7" s="1" t="n"/>
+      <c r="M7" s="1" t="n"/>
+      <c r="N7" s="1" t="n"/>
+      <c r="O7" s="1" t="n"/>
+      <c r="P7" s="1" t="n"/>
+      <c r="Q7" s="1" t="n"/>
+      <c r="R7" s="1" t="n"/>
+      <c r="S7" s="1" t="n"/>
+      <c r="T7" s="1" t="n"/>
+      <c r="U7" s="1" t="n"/>
+      <c r="V7" s="1" t="n"/>
+      <c r="W7" s="1" t="n"/>
+      <c r="X7" s="1" t="n"/>
+      <c r="Y7" s="1" t="n"/>
+      <c r="Z7" s="1" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="n">
         <v>862</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="1" t="n">
         <v>911</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="1" t="n">
         <v>244</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="1" t="n">
         <v>584</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="1" t="n">
         <v>810</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="1" t="n">
         <v>299</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="1" t="n">
         <v>430</v>
       </c>
+      <c r="K8" s="1" t="n"/>
+      <c r="L8" s="1" t="n"/>
+      <c r="M8" s="1" t="n"/>
+      <c r="N8" s="1" t="n"/>
+      <c r="O8" s="1" t="n"/>
+      <c r="P8" s="1" t="n"/>
+      <c r="Q8" s="1" t="n"/>
+      <c r="R8" s="1" t="n"/>
+      <c r="S8" s="1" t="n"/>
+      <c r="T8" s="1" t="n"/>
+      <c r="U8" s="1" t="n"/>
+      <c r="V8" s="1" t="n"/>
+      <c r="W8" s="1" t="n"/>
+      <c r="X8" s="1" t="n"/>
+      <c r="Y8" s="1" t="n"/>
+      <c r="Z8" s="1" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="1" t="n">
         <v>508</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="1" t="n">
         <v>855</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="1" t="n">
         <v>596</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9" s="1" t="n">
         <v>707</v>
       </c>
+      <c r="K9" s="1" t="n"/>
+      <c r="L9" s="1" t="n"/>
+      <c r="M9" s="1" t="n"/>
+      <c r="N9" s="1" t="n"/>
+      <c r="O9" s="1" t="n"/>
+      <c r="P9" s="1" t="n"/>
+      <c r="Q9" s="1" t="n"/>
+      <c r="R9" s="1" t="n"/>
+      <c r="S9" s="1" t="n"/>
+      <c r="T9" s="1" t="n"/>
+      <c r="U9" s="1" t="n"/>
+      <c r="V9" s="1" t="n"/>
+      <c r="W9" s="1" t="n"/>
+      <c r="X9" s="1" t="n"/>
+      <c r="Y9" s="1" t="n"/>
+      <c r="Z9" s="1" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="n">
         <v>461</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="1" t="n">
         <v>811</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="1" t="n">
         <v>363</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="1" t="n">
         <v>616</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="1" t="n">
         <v>429</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="1" t="n">
         <v>570</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="1" t="n">
         <v>646</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="1" t="n">
         <v>990</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" s="1" t="n">
         <v>904</v>
       </c>
+      <c r="K10" s="1" t="n"/>
+      <c r="L10" s="1" t="n"/>
+      <c r="M10" s="1" t="n"/>
+      <c r="N10" s="1" t="n"/>
+      <c r="O10" s="1" t="n"/>
+      <c r="P10" s="1" t="n"/>
+      <c r="Q10" s="1" t="n"/>
+      <c r="R10" s="1" t="n"/>
+      <c r="S10" s="1" t="n"/>
+      <c r="T10" s="1" t="n"/>
+      <c r="U10" s="1" t="n"/>
+      <c r="V10" s="1" t="n"/>
+      <c r="W10" s="1" t="n"/>
+      <c r="X10" s="1" t="n"/>
+      <c r="Y10" s="1" t="n"/>
+      <c r="Z10" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/B01_02 常用Python包学习/B01_02 10 Python_Excel/002 Docs/test1653298329.xlsx
+++ b/B01_02 常用Python包学习/B01_02 10 Python_Excel/002 Docs/test1653298329.xlsx
@@ -449,8 +449,11 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>标题</t>
